--- a/data/income_statement/3digits/total/201_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/201_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>201-Manufacture of basic chemicals, fertilizers and nitrogen compounds, plastics and synthetic rubber in primary forms</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>201-Manufacture of basic chemicals, fertilizers and nitrogen compounds, plastics and synthetic rubber in primary forms</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>10577592.34082</v>
@@ -962,34 +868,39 @@
         <v>19333238.94768</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>20550971.44726</v>
+        <v>20552049.99359</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>23783578.93475999</v>
+        <v>24031859.41519</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>25632447.64134</v>
+        <v>27188292.49629</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>30215020.18313</v>
+        <v>30258185.12334</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>41340120.35765</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>61499717.66475</v>
+        <v>61531622.26959001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>72353375.64287001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>72539161.89388001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>86905037.264</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>7867671.108620001</v>
+        <v>7867671.108619999</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>9156212.65533</v>
@@ -1001,31 +912,36 @@
         <v>13082596.51173</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>14107843.92889</v>
+        <v>14108922.47522</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>16671445.66073</v>
+        <v>16870598.81656</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>17764720.42465</v>
+        <v>18885197.65809</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>21751067.92821</v>
+        <v>21789218.0621</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>28572820.22488</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>39831318.75466</v>
+        <v>39862563.46899</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>48719500.4028</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>48894972.14114001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>62894918.918</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>2650874.95782</v>
@@ -1034,37 +950,42 @@
         <v>3482374.40158</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>5215804.8337</v>
+        <v>5215804.833699999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>6058620.495549999</v>
+        <v>6058620.49555</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>6192959.232559999</v>
+        <v>6192959.23256</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>6855122.036590001</v>
+        <v>6901926.146819999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>7647929.30842</v>
+        <v>7960204.2293</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>8096732.014950001</v>
+        <v>8101589.701610001</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>12453822.22624</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>20912360.32397</v>
+        <v>20912984.61254</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>23022984.13623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>23032610.74665001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>23174827.849</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>59046.27438</v>
@@ -1082,28 +1003,33 @@
         <v>250168.28581</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>257011.23744</v>
+        <v>259334.45181</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>219797.90827</v>
+        <v>342890.6089</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>367220.2399700001</v>
+        <v>367377.35963</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>313477.90653</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>756038.58612</v>
+        <v>756074.18806</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>610891.1038399999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>611579.00609</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>835290.497</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>141406.61205</v>
@@ -1118,31 +1044,36 @@
         <v>232115.32035</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>221317.36412</v>
+        <v>221378.78912</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>341058.25478</v>
+        <v>341953.3616600001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>503451.53349</v>
+        <v>510353.9843</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>954752.1590499999</v>
+        <v>956653.6351400001</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>556196.71551</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1216815.69057</v>
+        <v>1216939.57367</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1263025.42429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1264676.04181</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1597598.758</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>37968.64647</v>
@@ -1157,31 +1088,36 @@
         <v>62731.27295999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>62906.77633</v>
+        <v>62968.20133</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>95225.60484999999</v>
+        <v>96114.53752</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>145905.62569</v>
+        <v>149705.55867</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>657050.82261</v>
+        <v>657714.8308499999</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>181732.97479</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>335266.49438</v>
+        <v>335390.22748</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>321609.72794</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>322898.21203</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>433916.363</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>24982.11245</v>
@@ -1202,31 +1138,36 @@
         <v>47819.67584</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>84839.25721000001</v>
+        <v>86412.13867</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>104229.48743</v>
+        <v>105382.0054</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>125234.42719</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>357256.20838</v>
+        <v>357256.35838</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>386859.76897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>387007.51409</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>298616.673</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>78455.85313</v>
+        <v>78455.85312999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>74248.98169000002</v>
+        <v>74248.98169</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>110480.11362</v>
@@ -1238,13 +1179,13 @@
         <v>121165.07391</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>198012.97409</v>
+        <v>198019.1483</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>272706.65059</v>
+        <v>274236.28696</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>193471.84901</v>
+        <v>193556.79889</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>249229.31353</v>
@@ -1253,13 +1194,18 @@
         <v>524292.98781</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>554555.92738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>554770.31569</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>865065.722</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>10436185.72877</v>
@@ -1274,31 +1220,36 @@
         <v>19101123.62733</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>20329654.08314</v>
+        <v>20330671.20447</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>23442520.67998</v>
+        <v>23689906.05353</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>25128996.10784999</v>
+        <v>26677938.51199</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>29260268.02408</v>
+        <v>29301531.4882</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>40783923.64214</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>60282901.97417999</v>
+        <v>60314682.69592</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>71090350.21858001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>71274485.85207</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>85307438.506</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>8702270.556030001</v>
@@ -1313,31 +1264,36 @@
         <v>15619138.1875</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>16276070.3273</v>
+        <v>16276891.51845</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>18687294.89459</v>
+        <v>18904746.13333</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>19712893.15951</v>
+        <v>20637933.14254</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>22071465.94109</v>
+        <v>22101986.60800999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>29954562.30969</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>44154779.41865</v>
+        <v>44185082.1675</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>54446110.64946001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>54626911.54219</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>63530181.153</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>6312695.424450001</v>
@@ -1352,31 +1308,36 @@
         <v>13075713.50831</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>13576176.23319</v>
+        <v>13576276.19948</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>14973374.88801</v>
+        <v>15154475.17678</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>16482808.37048</v>
+        <v>17306848.42379</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>17963808.22921</v>
+        <v>17989339.56277</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>24128016.30752</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>36054913.05039</v>
+        <v>36056825.77594</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>43664890.46630999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>43732308.74520001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>47224948.883</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>2259290.53048</v>
@@ -1391,31 +1352,36 @@
         <v>2359829.53538</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2510053.08766</v>
+        <v>2510774.31252</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3532331.08846</v>
+        <v>3552157.18881</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3012044.73371</v>
+        <v>3087408.49596</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3862591.588579999</v>
+        <v>3867561.21642</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>5548612.23185</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>7748620.211010002</v>
+        <v>7776711.32633</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>10367412.99075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>10428139.3924</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>15774939.604</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>91125.74262</v>
@@ -1433,52 +1399,57 @@
         <v>119443.52453</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>127391.89529</v>
+        <v>134107.3837</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>166628.73951</v>
+        <v>176023.26057</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>185824.62691</v>
+        <v>185844.33243</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>203069.3583</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>208193.43129</v>
+        <v>208492.33927</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>235087.58322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>234650.65005</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>356828.98</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>39158.85848</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>40310.47584</v>
+        <v>40310.47584000001</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>66528.93372999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>43545.46121</v>
+        <v>43545.46121000001</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>70397.48192000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>54197.02283</v>
+        <v>64006.38404</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>51411.31581</v>
+        <v>67652.96222</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>59241.49638999999</v>
+        <v>59241.49639</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>74864.41201999999</v>
@@ -1487,13 +1458,18 @@
         <v>143052.72596</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>178719.60918</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>231812.75454</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>173463.686</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1733915.17274</v>
@@ -1508,31 +1484,36 @@
         <v>3481985.43983</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4053583.75584</v>
+        <v>4053779.68602</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4755225.785389999</v>
+        <v>4785159.9202</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5416102.948340001</v>
+        <v>6040005.36945</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>7188802.08299</v>
+        <v>7199544.88019</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>10829361.33245</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>16128122.55553</v>
+        <v>16129600.52842</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>16644239.56912</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16647574.30988</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>21777257.353</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1013369.35486</v>
@@ -1547,31 +1528,36 @@
         <v>1665175.22323</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1884372.86472</v>
+        <v>1884578.39848</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2139074.18346</v>
+        <v>2150884.41923</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2177578.05781</v>
+        <v>2453277.16442</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2883628.15825</v>
+        <v>2892881.10717</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>3839964.29822</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5293496.25401</v>
+        <v>5298816.57355</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>6944378.74719</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6983329.688240001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>7385938.277</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>16774.01329</v>
@@ -1589,13 +1575,13 @@
         <v>33603.33508999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>47195.37328</v>
+        <v>47638.31092999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>47250.67187</v>
+        <v>48012.18792</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>54163.50836000001</v>
+        <v>54766.38776000001</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>57821.96872</v>
@@ -1604,13 +1590,18 @@
         <v>75540.20044</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>88449.66149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>88529.51286</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>109521.513</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>509996.2434</v>
@@ -1622,76 +1613,86 @@
         <v>743156.3443100001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>868952.27871</v>
+        <v>868952.2787099999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>971215.6753199999</v>
+        <v>971295.22676</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1113464.87572</v>
+        <v>1119666.8532</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1090205.83342</v>
+        <v>1237531.73673</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1420073.94703</v>
+        <v>1426273.27771</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>2092446.39568</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3065862.15686</v>
+        <v>3066174.17387</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3612302.48196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3615417.27383</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4003568.599</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>486599.0981700001</v>
+        <v>486599.09817</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>560618.8365500001</v>
+        <v>560618.83655</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>667235.7130699999</v>
+        <v>667235.7130700001</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>770690.02998</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>879553.85431</v>
+        <v>879679.83663</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>978413.93446</v>
+        <v>983579.2551000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1040121.55252</v>
+        <v>1167733.23977</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1409390.70286</v>
+        <v>1411841.4417</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1689695.93382</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2152093.89671</v>
+        <v>2157102.19924</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3243626.60374</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3279382.90155</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3272848.165</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>720545.8178799999</v>
+        <v>720545.8178800001</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>1292377.4146</v>
@@ -1703,37 +1704,42 @@
         <v>1816810.2166</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2169210.89112</v>
+        <v>2169201.28754</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2616151.60193</v>
+        <v>2634275.50097</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3238524.89053</v>
+        <v>3586728.20503</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>4305173.924740001</v>
+        <v>4306663.77302</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>6989397.034229999</v>
+        <v>6989397.03423</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>10834626.30152</v>
+        <v>10830783.95487</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>9699860.821930001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>9664244.621639999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>14391319.076</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>614950.67128</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>731431.8196099999</v>
+        <v>731431.81961</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>1006454.91902</v>
@@ -1742,37 +1748,42 @@
         <v>861608.22086</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1449421.28074</v>
+        <v>1449425.46912</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2225150.41573</v>
+        <v>2235234.44156</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2533139.557560001</v>
+        <v>2853490.1664</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3563836.52976</v>
+        <v>3564664.99504</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>5253973.931209999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>16668974.41991</v>
+        <v>16671666.53966</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>28934428.61217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>28934973.95202</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>13189408.382</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>50073.48984999999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>47984.34918</v>
+        <v>47984.34917999999</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>58358.03371</v>
@@ -1781,7 +1792,7 @@
         <v>44324.60542</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>43819.82788999999</v>
+        <v>43819.82789</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>42372.78989</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>247324.75164</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>38611.583</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>9336.008599999999</v>
@@ -1814,7 +1830,7 @@
         <v>10814.9067</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>6905.803249999999</v>
+        <v>6905.80325</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>9803.419</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>747912.8244800001</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>78639.609</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>83929.83573999999</v>
@@ -1859,31 +1880,36 @@
         <v>116455.68284</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>112483.74426</v>
+        <v>112487.93264</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>195053.68787</v>
+        <v>195054.57132</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>279507.53308</v>
+        <v>304375.16874</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>453937.4634600001</v>
+        <v>454014.3823599999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>475697.61517</v>
+        <v>475697.6151699999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1008152.44302</v>
+        <v>1008386.78955</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>838784.0265800001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>839258.27932</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1028086.336</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>8332.666310000001</v>
@@ -1904,7 +1930,7 @@
         <v>2215.88338</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4152.6736</v>
+        <v>4489.72703</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>6100.73382</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>13368.66278</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>69506.96000000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>15442.1969</v>
@@ -1943,10 +1974,10 @@
         <v>31883.56427</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>53671.03256</v>
+        <v>54173.64450000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>44293.40284</v>
+        <v>44401.93148000001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>51669.17856</v>
@@ -1955,13 +1986,18 @@
         <v>18312.07362</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>17493.63687</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>19750.07408</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>34293.183</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>885.0136799999999</v>
@@ -1970,7 +2006,7 @@
         <v>1084.04811</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>651.28674</v>
+        <v>651.2867400000001</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>572.79903</v>
@@ -1979,34 +2015,39 @@
         <v>308424.34541</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>616307.3523599999</v>
+        <v>616307.35236</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>3558.35865</v>
+        <v>3559.39075</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>11457.19642</v>
+        <v>11457.42613</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>85673.37633999999</v>
+        <v>85673.37634</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>268507.00497</v>
+        <v>268507.01184</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>201697.39569</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>275792.317</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>355243.28896</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>529802.0201699999</v>
+        <v>529802.02017</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>710910.86487</v>
@@ -2018,28 +2059,33 @@
         <v>800069.7055</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1123428.89058</v>
+        <v>1132825.6145</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1955425.01043</v>
+        <v>2233221.08217</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2479659.85856</v>
+        <v>2480074.08918</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3990887.675100001</v>
+        <v>3990887.6751</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>13998685.26747</v>
+        <v>14000803.72063</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>26298101.12264</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>26294917.37616</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>10925187.171</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>5895.194050000001</v>
@@ -2063,10 +2109,10 @@
         <v>29265.62084</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>56514.85358</v>
+        <v>56648.64730999999</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>77113.81008</v>
+        <v>77113.81008000001</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>91635.30734</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>177851.82932</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>150161.437</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>7.80236</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>390.8895</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1.114</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>85805.17483</v>
@@ -2126,7 +2182,7 @@
         <v>66510.06143</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>97437.11460000002</v>
+        <v>97437.1146</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>116781.12524</v>
@@ -2135,28 +2191,33 @@
         <v>148769.43987</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>168853.12036</v>
+        <v>169539.53882</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>116001.6313</v>
+        <v>132847.83527</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>165293.14658</v>
+        <v>165387.91026</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>277753.56977</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>273557.40019</v>
+        <v>273896.71338</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>391503.47267</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>392501.86905</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>589128.672</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>410909.60305</v>
@@ -2168,34 +2229,39 @@
         <v>859329.0485200001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>526125.45164</v>
+        <v>526125.4516400001</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>1036766.04573</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1179559.47704</v>
+        <v>1191669.31343</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2008843.43404</v>
+        <v>2184882.89595</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2804864.49701</v>
+        <v>2806212.78548</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>3753914.854540001</v>
+        <v>3753914.85454</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>11584192.57334</v>
+        <v>11585130.61411</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>25739457.97179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>25740118.47466999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>10744582.875</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>680.31951</v>
@@ -2213,28 +2279,33 @@
         <v>2829.03983</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4008.63382</v>
+        <v>4296.36693</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>8466.29758</v>
+        <v>9043.738730000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>5691.38138</v>
+        <v>5883.855550000001</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>6766.39739</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>20595.26353</v>
+        <v>20595.26653</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>29305.28036</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>29305.48161</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>38560.045</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>23555.71736</v>
@@ -2243,37 +2314,42 @@
         <v>17693.11385</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>64408.65548</v>
+        <v>64408.65547999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>35975.17774</v>
+        <v>35975.17773999999</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>62876.0451</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>43761.5747</v>
+        <v>45562.25681</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>59500.92907</v>
+        <v>60756.58118000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>100759.01232</v>
+        <v>101063.21842</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>53383.66283</v>
+        <v>53383.66283000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>104609.39969</v>
+        <v>104675.39448</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>120940.54561</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>128743.59265</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>237538.555</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>255.82517</v>
@@ -2300,22 +2376,27 @@
         <v>1084.82226</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>2754.01729</v>
+        <v>2754.017290000001</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>111522.39783</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>145749.95955</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>144619.05235</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3418.017</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>344718.4471299999</v>
+        <v>344718.44713</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>457529.21727</v>
@@ -2324,34 +2405,39 @@
         <v>752227.0614400001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>422291.8052099999</v>
+        <v>422291.80521</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>910667.43935</v>
+        <v>910667.4393500001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1014609.5834</v>
+        <v>1024380.55009</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1849097.01274</v>
+        <v>2022883.85402</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2557200.143519999</v>
+        <v>2557705.53701</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>3512574.100649999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>11096688.06316</v>
+        <v>11097560.10614</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>25113827.89733</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>25107782.28738</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>10066494.656</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>3735.18436</v>
@@ -2375,10 +2461,10 @@
         <v>33301.09385</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>61134.28089</v>
+        <v>61289.61399000001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>87525.47179000001</v>
+        <v>87525.47179</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>128004.29675</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>143482.32727</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>177377.926</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>37.03486</v>
@@ -2414,7 +2505,7 @@
         <v>8.2057</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>25.20457</v>
+        <v>31.13677</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>98.61559999999999</v>
@@ -2425,50 +2516,60 @@
       <c r="M42" s="48" t="n">
         <v>2.64549</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>329.755</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>37927.07466</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>39782.24198000001</v>
+        <v>39782.24198</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>35858.17712000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>45076.26494000001</v>
+        <v>45076.26494</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>40245.88041000001</v>
+        <v>40245.88041</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>69420.90315000001</v>
+        <v>69671.35763</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>58145.28458</v>
+        <v>58564.81195</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>78969.65207</v>
+        <v>79154.60148</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>90812.58898999999</v>
+        <v>90812.58899</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>122768.32051</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>186149.31618</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>186183.08792</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>220863.921</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>214411.17181</v>
@@ -2483,31 +2584,36 @@
         <v>290749.31133</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>544930.3906599999</v>
+        <v>544935.88666</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>616856.9901700001</v>
+        <v>622503.79856</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>954928.0008500002</v>
+        <v>1138917.11507</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1246892.20774</v>
+        <v>1249409.13851</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1728731.83213</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>7895851.65945</v>
+        <v>7896030.347880001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>4438525.04554</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4404003.632739999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5589414.938</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>181754.90149</v>
@@ -2522,31 +2628,36 @@
         <v>238207.25547</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>449895.28502</v>
+        <v>449900.78102</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>498867.16125</v>
+        <v>504513.96964</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>745637.47645</v>
+        <v>922286.9756900001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>926313.90707</v>
+        <v>928830.8378400001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1305619.72576</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>6060218.18853</v>
+        <v>6060396.87696</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3320901.06511</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3320001.30041</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3514882.914</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>32656.27032</v>
@@ -2561,13 +2672,13 @@
         <v>52542.05586</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>95035.10563999999</v>
+        <v>95035.10564000001</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>117989.82892</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>209290.5244</v>
+        <v>216630.13938</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>320578.30067</v>
@@ -2579,13 +2690,18 @@
         <v>1835633.47092</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1117623.98043</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1084002.33233</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2074532.024</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>710175.7143</v>
@@ -2600,31 +2716,36 @@
         <v>1861543.67449</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2036935.73547</v>
+        <v>2036924.82427</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3044885.55045</v>
+        <v>3055336.83054</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2807893.0132</v>
+        <v>3116418.36041</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>3817253.749749999</v>
+        <v>3815706.844070001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>6760724.27877</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>8023556.48864</v>
+        <v>8021289.532539999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>8456306.41677</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>8455096.466250001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>11246729.645</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>110657.879</v>
@@ -2642,28 +2763,33 @@
         <v>142845.32601</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>231282.42507</v>
+        <v>231345.92548</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>293708.42881</v>
+        <v>305869.4144899999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>345908.0670800001</v>
+        <v>346230.84884</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>378491.59251</v>
+        <v>378491.5925099999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>465109.84564</v>
+        <v>465189.42018</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>522344.4712</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>523664.86959</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>847988.51</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>18173.43321</v>
@@ -2678,31 +2804,36 @@
         <v>3788.14115</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>7202.02218</v>
+        <v>7202.022180000001</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>13550.28417</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>35190.98121</v>
+        <v>35191.66962</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>21471.70926</v>
+        <v>21491.95927</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>29173.32485</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>29478.63351</v>
+        <v>29478.77125</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>12370.21948</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>12370.21951</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>297683.886</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>92484.44579000001</v>
@@ -2720,28 +2851,33 @@
         <v>135643.30383</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>217732.1409</v>
+        <v>217795.64131</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>258517.4476</v>
+        <v>270677.74487</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>324436.35782</v>
+        <v>324738.88957</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>349318.26766</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>435631.21213</v>
+        <v>435710.64893</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>509974.25172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>511294.6500800001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>550304.624</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>173314.74001</v>
@@ -2756,37 +2892,42 @@
         <v>189825.97434</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>209764.63943</v>
+        <v>209767.34767</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>228758.73863</v>
+        <v>228985.86206</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>300578.3632199999</v>
+        <v>313576.80603</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>388771.38568</v>
+        <v>389240.48791</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>321112.41056</v>
+        <v>321112.4105599999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>553038.85797</v>
+        <v>553924.0957600001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>907367.4798800001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>897762.62974</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>753458.841</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>107418.68791</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>64467.99510999999</v>
+        <v>64467.99511</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>62148.64633</v>
@@ -2801,10 +2942,10 @@
         <v>94732.31140000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>180653.63582</v>
+        <v>180788.67417</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>173108.0697</v>
+        <v>173234.16743</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>158376.71826</v>
@@ -2813,13 +2954,18 @@
         <v>204281.72669</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>408597.8562699999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>408598.57118</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>433999.324</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>23547.26774</v>
@@ -2831,37 +2977,42 @@
         <v>22521.74144</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>48909.88856</v>
+        <v>48909.88855999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>19898.45069</v>
+        <v>19898.45069000001</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>20750.92965</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>42583.21625</v>
+        <v>43171.03908</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>26241.90436</v>
+        <v>26321.66652</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>38748.36781</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>74479.32296</v>
+        <v>74552.27056000002</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>81474.28885</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>81576.11157000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>86585.40700000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>42348.78436000001</v>
+        <v>42348.78436</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>55203.87004</v>
@@ -2873,31 +3024,36 @@
         <v>54719.34986</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>76385.67879999999</v>
+        <v>76388.38703999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>113275.49758</v>
+        <v>113502.62101</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>77341.51115000001</v>
+        <v>89617.09278000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>189421.41162</v>
+        <v>189684.65396</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>123987.32449</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>274277.8083200001</v>
+        <v>275090.09851</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>417295.33476</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>407587.94699</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>232874.11</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>647518.85329</v>
@@ -2912,31 +3068,36 @@
         <v>1855555.47629</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1970016.42205</v>
+        <v>1970002.80261</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3047409.23689</v>
+        <v>3057696.89396</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2801023.07879</v>
+        <v>3108710.96887</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>3774390.43115</v>
+        <v>3772697.205000001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>6818103.46072</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>7935627.47631</v>
+        <v>7932554.85696</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>8071283.40809</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>8080998.7061</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>11341259.314</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>132346.89861</v>
@@ -2948,34 +3109,39 @@
         <v>214774.63327</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>333508.2127099999</v>
+        <v>333508.2127100001</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>320573.82275</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>443648.68209</v>
+        <v>445758.78857</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>476054.05046</v>
+        <v>536244.08742</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>440986.92668</v>
+        <v>441511.93242</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>611905.8418599999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>814777.1486000001</v>
+        <v>814858.71748</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1255493.85839</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1256729.30245</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1740218.982</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>515171.95468</v>
@@ -2990,28 +3156,31 @@
         <v>1522047.26358</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1649442.5993</v>
+        <v>1649428.97986</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2603760.5548</v>
+        <v>2611938.10539</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2324969.02833</v>
+        <v>2572466.88145</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3333403.50447</v>
+        <v>3331185.27258</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>6206197.61886</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>7120850.32771</v>
+        <v>7117696.13948</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>6815789.5497</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>6824269.403650001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>9601040.332</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1706</v>
@@ -3044,28 +3216,31 @@
         <v>1561</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1362</v>
+        <v>1368</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1370</v>
+        <v>1390</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1431</v>
+        <v>1444</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1518</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1431</v>
+        <v>1611</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1753</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>